--- a/all_constructions.xlsx
+++ b/all_constructions.xlsx
@@ -458,44 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>{'Part of speech': 'Interjection'}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pronoun personal</t>
+          <t>{'Part of speech': 'Pronoun personal'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Be form</t>
+          <t>{'Part of speech': 'Be form'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adjective</t>
+          <t>{'Part of speech': 'Adjective'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Interjection</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pronoun personal</t>
+          <t>{'Part of speech': 'Pronoun personal'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Be form</t>
+          <t>{'Part of speech': 'Be form'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adjective</t>
+          <t>{'Part of speech': 'Adjective'}</t>
         </is>
       </c>
     </row>
